--- a/biology/Médecine/1315_en_santé_et_médecine/1315_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1315_en_santé_et_médecine/1315_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1315_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1315_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1315 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1315_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1315_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Janvier et mars : Mondino de Liuzzi dissèque le cadavre de deux femmes, selon son propre témoignage publié en 1316 dans l'Anathomia.
-Fondation de l'hôpital Saint-Jean et Saint-Paul à Gand, en Flandre[1].
-Fondation par Symond Potyn d'une léproserie à Rochester dans le Kent en Angleterre, établissement qui est à l'origine de l'actuel hôpital Sainte-Catherine (en)[2].
-Des bourses d'études sont accordées à des écoliers en médecine du collège de Bayeux, à Paris[3].
-1315-1317 : grande famine en Europe[4].
-1315-1318 : fondation de l'hôpital Sainte-Marie (Hospital of St. Mary in the Horsefair) à York en Angleterre[5].</t>
+Fondation de l'hôpital Saint-Jean et Saint-Paul à Gand, en Flandre.
+Fondation par Symond Potyn d'une léproserie à Rochester dans le Kent en Angleterre, établissement qui est à l'origine de l'actuel hôpital Sainte-Catherine (en).
+Des bourses d'études sont accordées à des écoliers en médecine du collège de Bayeux, à Paris.
+1315-1317 : grande famine en Europe.
+1315-1318 : fondation de l'hôpital Sainte-Marie (Hospital of St. Mary in the Horsefair) à York en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1315_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1315_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1315-1320[6] : Jean de Guistry (mort en 1379), médecin des rois de France Jean II et Charles V, de Jeanne de Savoie, duchesse de Bretagne, et d'Amaury de Craon ; bienfaiteur et restaurateur du collège de Cornouailles à Paris[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1315-1320 : Jean de Guistry (mort en 1379), médecin des rois de France Jean II et Charles V, de Jeanne de Savoie, duchesse de Bretagne, et d'Amaury de Craon ; bienfaiteur et restaurateur du collège de Cornouailles à Paris.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1315_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1315_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>29 juin : Raymond Lulle (né vers 1232), philosophe, théologien et poète espagnol, auteur d'un ouvrage de médecine (Liber principiorum medicinae, 1274[8]), et du Testament de l'art chimique universel qui aborde, parmi d'autres  sujets de médecine ou de pharmacologie, la question des vertus thérapeutiques de l'alcool.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>29 juin : Raymond Lulle (né vers 1232), philosophe, théologien et poète espagnol, auteur d'un ouvrage de médecine (Liber principiorum medicinae, 1274), et du Testament de l'art chimique universel qui aborde, parmi d'autres  sujets de médecine ou de pharmacologie, la question des vertus thérapeutiques de l'alcool.</t>
         </is>
       </c>
     </row>
